--- a/Business Analysis/data/user_1.xlsx
+++ b/Business Analysis/data/user_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6F31790-1FBB-4BEC-90C2-00F0D4815D0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26CAF1C-5757-42C7-B3E7-A04033130944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82B3C739-B5A8-4F4D-BDE7-601B15B215EB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
   <si>
     <t>Id</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Studying</t>
   </si>
   <si>
-    <t>Evening (6pm - 12am)</t>
-  </si>
-  <si>
     <t>My Angel-Stive Morgan</t>
   </si>
   <si>
@@ -69,21 +66,12 @@
     <t>Relaxed</t>
   </si>
   <si>
-    <t>Morning (6am - 12pm)</t>
-  </si>
-  <si>
-    <t>Let me love you - Harley Quinn &amp; The Joker</t>
-  </si>
-  <si>
     <t>Sign of the Times - Harry Styles</t>
   </si>
   <si>
     <t>When I Look At You - Miley Cyrus</t>
   </si>
   <si>
-    <t>Afternoon (12pm - 6pm)</t>
-  </si>
-  <si>
     <t>Diamond Heart - Alan Walker</t>
   </si>
   <si>
@@ -105,36 +93,24 @@
     <t>Amusing</t>
   </si>
   <si>
-    <t>Trespass - Andy Moor feat. Sue McLaren</t>
-  </si>
-  <si>
     <t>Lady in Black - Ken Hensley</t>
   </si>
   <si>
     <t>Catharsis-Flaer Smin</t>
   </si>
   <si>
-    <t>The things you said-Martin L. Gore</t>
-  </si>
-  <si>
     <t>Calm</t>
   </si>
   <si>
     <t>The silence-Manchester Orchestra</t>
   </si>
   <si>
-    <t>Goldfrapp, David Gahan-Ocean</t>
-  </si>
-  <si>
     <t>Freestate-Depeche Mode</t>
   </si>
   <si>
     <t>Treasure-Amethystium</t>
   </si>
   <si>
-    <t>Tired-Schiller,Jael</t>
-  </si>
-  <si>
     <t>Outdoor</t>
   </si>
   <si>
@@ -175,6 +151,189 @@
   </si>
   <si>
     <t>song-artist</t>
+  </si>
+  <si>
+    <t>Let me love you - Justin Bieber</t>
+  </si>
+  <si>
+    <t>Trespass - Andy Moor, Sue McLaren</t>
+  </si>
+  <si>
+    <t>The things you said-Depeche Mode</t>
+  </si>
+  <si>
+    <t>Ocean-Goldfrapp,Dave Gahan</t>
+  </si>
+  <si>
+    <t>Tired_Live-Schiller,Jael</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>My Angel</t>
+  </si>
+  <si>
+    <t>Stive Morgan</t>
+  </si>
+  <si>
+    <t>October &amp; April</t>
+  </si>
+  <si>
+    <t>The Rasmus</t>
+  </si>
+  <si>
+    <t>One more time</t>
+  </si>
+  <si>
+    <t>R Armando Morabito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let me love you </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Justin Bieber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign of the Times </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harry Styles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I Look At You </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miley Cyrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamond Heart </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alan Walker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come Along </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Titiyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Angel </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stive Morgan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trespass </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andy Moor, Sue McLaren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady in Black </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ken Hensley</t>
+  </si>
+  <si>
+    <t>Catharsis</t>
+  </si>
+  <si>
+    <t>Flaer Smin</t>
+  </si>
+  <si>
+    <t>The things you said</t>
+  </si>
+  <si>
+    <t>Depeche Mode</t>
+  </si>
+  <si>
+    <t>The silence</t>
+  </si>
+  <si>
+    <t>Manchester Orchestra</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Goldfrapp,Dave Gahan</t>
+  </si>
+  <si>
+    <t>Freestate</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Amethystium</t>
+  </si>
+  <si>
+    <t>Schiller,Jael</t>
+  </si>
+  <si>
+    <t>Radioactive</t>
+  </si>
+  <si>
+    <t>Imagine Dragons</t>
+  </si>
+  <si>
+    <t>The grid</t>
+  </si>
+  <si>
+    <t>TRON Legacy</t>
+  </si>
+  <si>
+    <t>Illusion</t>
+  </si>
+  <si>
+    <t>VNV Nation</t>
+  </si>
+  <si>
+    <t>Golden Key</t>
+  </si>
+  <si>
+    <t>Isgaard</t>
+  </si>
+  <si>
+    <t>I'm still here</t>
+  </si>
+  <si>
+    <t>Sia</t>
+  </si>
+  <si>
+    <t>Tired-Live</t>
+  </si>
+  <si>
+    <t>Back to Black-Amy Winehouse</t>
+  </si>
+  <si>
+    <t>Back to Black</t>
+  </si>
+  <si>
+    <t>Amy Winehouse</t>
+  </si>
+  <si>
+    <t>Amy Macdonald</t>
+  </si>
+  <si>
+    <t>This is the life</t>
+  </si>
+  <si>
+    <t>This is the life-Amy Macdonald</t>
   </si>
 </sst>
 </file>
@@ -222,11 +381,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,47 +701,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2060FE2C-A30E-4EBF-B405-ABFA2908FDA9}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43832.814583287036</v>
       </c>
@@ -601,16 +770,22 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43843.751017291666</v>
       </c>
@@ -621,25 +796,31 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43843.752100462967</v>
       </c>
@@ -650,25 +831,31 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43844.499503263884</v>
       </c>
@@ -679,25 +866,31 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43844.499953275459</v>
       </c>
@@ -708,25 +901,31 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43844.500921203704</v>
       </c>
@@ -737,25 +936,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43844.502277210646</v>
       </c>
@@ -766,25 +971,31 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43844.523279432869</v>
       </c>
@@ -795,25 +1006,31 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43844.542368078706</v>
       </c>
@@ -824,25 +1041,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43848.919777465278</v>
       </c>
@@ -853,25 +1076,31 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43848.94770365741</v>
       </c>
@@ -882,25 +1111,31 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43848.956595902782</v>
       </c>
@@ -911,25 +1146,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43848.960559317129</v>
       </c>
@@ -940,25 +1181,31 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43848.962558391198</v>
       </c>
@@ -969,25 +1216,31 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43849.343566643518</v>
       </c>
@@ -998,25 +1251,31 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43850.546927384261</v>
       </c>
@@ -1027,25 +1286,31 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43855.61178496528</v>
       </c>
@@ -1056,25 +1321,31 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43855.616358368061</v>
       </c>
@@ -1085,25 +1356,31 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43855.806558240743</v>
       </c>
@@ -1114,25 +1391,31 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43855.829420289352</v>
       </c>
@@ -1143,25 +1426,31 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43870.487798715279</v>
       </c>
@@ -1172,25 +1461,31 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43870.492394270834</v>
       </c>
@@ -1201,25 +1496,31 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43870.497763263891</v>
       </c>
@@ -1230,22 +1531,98 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43870.499849537038</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
+      <c r="F25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>43870</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Business Analysis/data/user_1.xlsx
+++ b/Business Analysis/data/user_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26CAF1C-5757-42C7-B3E7-A04033130944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF8DF6D-1F8F-42FB-BA47-052094EDFC2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82B3C739-B5A8-4F4D-BDE7-601B15B215EB}"/>
   </bookViews>
@@ -31,41 +31,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="104">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Pleased</t>
-  </si>
-  <si>
-    <t>Studying</t>
-  </si>
-  <si>
     <t>My Angel-Stive Morgan</t>
   </si>
   <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>Working</t>
-  </si>
-  <si>
     <t>October &amp; April-The Rasmus</t>
   </si>
   <si>
     <t>One more time-R Armando Morabito</t>
   </si>
   <si>
-    <t>Relaxed</t>
-  </si>
-  <si>
     <t>Sign of the Times - Harry Styles</t>
   </si>
   <si>
@@ -78,30 +57,15 @@
     <t>Come Along - Titiyo</t>
   </si>
   <si>
-    <t>Nervous</t>
-  </si>
-  <si>
     <t>My Angel - Stive Morgan</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Sad</t>
-  </si>
-  <si>
-    <t>Amusing</t>
-  </si>
-  <si>
     <t>Lady in Black - Ken Hensley</t>
   </si>
   <si>
     <t>Catharsis-Flaer Smin</t>
   </si>
   <si>
-    <t>Calm</t>
-  </si>
-  <si>
     <t>The silence-Manchester Orchestra</t>
   </si>
   <si>
@@ -111,9 +75,6 @@
     <t>Treasure-Amethystium</t>
   </si>
   <si>
-    <t>Outdoor</t>
-  </si>
-  <si>
     <t>Radioactive-Imagine Dragons</t>
   </si>
   <si>
@@ -334,6 +295,54 @@
   </si>
   <si>
     <t>This is the life-Amy Macdonald</t>
+  </si>
+  <si>
+    <t>Insomnia-IAMX</t>
+  </si>
+  <si>
+    <t>Insomnia</t>
+  </si>
+  <si>
+    <t>IAMX</t>
+  </si>
+  <si>
+    <t>studying</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>amusing</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>relaxed</t>
+  </si>
+  <si>
+    <t>nervous</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>calm</t>
   </si>
 </sst>
 </file>
@@ -381,12 +390,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,15 +711,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2060FE2C-A30E-4EBF-B405-ABFA2908FDA9}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1"/>
@@ -717,37 +728,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -758,31 +769,31 @@
         <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -793,31 +804,31 @@
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -828,31 +839,31 @@
         <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -863,31 +874,31 @@
         <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -898,31 +909,31 @@
         <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -933,31 +944,31 @@
         <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -968,31 +979,31 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1003,31 +1014,31 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1038,31 +1049,31 @@
         <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1073,31 +1084,31 @@
         <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1108,31 +1119,31 @@
         <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1143,31 +1154,31 @@
         <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1178,31 +1189,31 @@
         <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1213,31 +1224,31 @@
         <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1248,31 +1259,31 @@
         <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1283,31 +1294,31 @@
         <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1318,31 +1329,31 @@
         <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1353,31 +1364,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1388,31 +1399,31 @@
         <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1423,31 +1434,31 @@
         <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1458,31 +1469,31 @@
         <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1493,31 +1504,31 @@
         <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1528,31 +1539,31 @@
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I24" s="1">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1563,66 +1574,101 @@
         <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>43870</v>
+        <v>43870.871527777781</v>
       </c>
       <c r="B26" s="1">
         <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>43870.931944444441</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Business Analysis/data/user_1.xlsx
+++ b/Business Analysis/data/user_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF8DF6D-1F8F-42FB-BA47-052094EDFC2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A110E0F-93DE-4A2B-9A8F-35E684E1E6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82B3C739-B5A8-4F4D-BDE7-601B15B215EB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="106">
   <si>
     <t>Id</t>
   </si>
@@ -90,9 +90,6 @@
     <t>I'm still here-Sia</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -343,15 +340,21 @@
   </si>
   <si>
     <t>calm</t>
+  </si>
+  <si>
+    <t>Give a little-Ash</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>Give a little</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,13 +393,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,22 +711,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2060FE2C-A30E-4EBF-B405-ABFA2908FDA9}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -749,926 +748,877 @@
         <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>43832.814583287036</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44</v>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>43843.751017291666</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="K3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>43843.752100462967</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>43844.499503263884</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>43844.499953275459</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44</v>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
       </c>
       <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>43844.500921203704</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>47</v>
       </c>
-      <c r="K7" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>43844.502277210646</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>49</v>
       </c>
-      <c r="K8" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>43844.523279432869</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="K9" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>43844.542368078706</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>53</v>
       </c>
-      <c r="K10" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>43848.919777465278</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>55</v>
       </c>
-      <c r="K11" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>43848.94770365741</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>57</v>
       </c>
-      <c r="K12" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>43848.956595902782</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>59</v>
       </c>
-      <c r="K13" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>43848.960559317129</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>61</v>
       </c>
-      <c r="K14" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>43848.962558391198</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>63</v>
       </c>
-      <c r="K15" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>43849.343566643518</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>65</v>
       </c>
-      <c r="K16" t="s">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>43850.546927384261</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="J17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="E18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
         <v>67</v>
-      </c>
-      <c r="K17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>43855.61178496528</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>68</v>
       </c>
-      <c r="K18" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>43855.616358368061</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="1" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>43855.806558240743</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="1">
-        <v>1</v>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
       </c>
       <c r="J20" t="s">
         <v>71</v>
       </c>
-      <c r="K20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>43855.829420289352</v>
-      </c>
-      <c r="B21" s="1">
-        <v>44</v>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="1">
-        <v>1</v>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>72</v>
       </c>
       <c r="J21" t="s">
         <v>73</v>
       </c>
-      <c r="K21" t="s">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>43870.487798715279</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>75</v>
       </c>
-      <c r="K22" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>43870.492394270834</v>
-      </c>
-      <c r="B23" s="1">
-        <v>44</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>77</v>
       </c>
-      <c r="K23" t="s">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>43870.497763263891</v>
-      </c>
-      <c r="B24" s="1">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>79</v>
       </c>
-      <c r="K24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>43870.499849537038</v>
-      </c>
-      <c r="B25" s="1">
-        <v>44</v>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>43870.871527777781</v>
-      </c>
-      <c r="B26" s="1">
-        <v>44</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="1" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>43870.931944444441</v>
-      </c>
-      <c r="B27" s="1">
-        <v>44</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>90</v>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Business Analysis/data/user_1.xlsx
+++ b/Business Analysis/data/user_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A110E0F-93DE-4A2B-9A8F-35E684E1E6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90509C50-2EEF-46EC-A460-D97DB9C338D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82B3C739-B5A8-4F4D-BDE7-601B15B215EB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="112">
   <si>
     <t>Id</t>
   </si>
@@ -349,6 +349,24 @@
   </si>
   <si>
     <t>Give a little</t>
+  </si>
+  <si>
+    <t>Running Up that hill-Placebo</t>
+  </si>
+  <si>
+    <t>Running up that hill</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>VNV Nation-Further</t>
+  </si>
+  <si>
+    <t>Further</t>
   </si>
 </sst>
 </file>
@@ -711,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2060FE2C-A30E-4EBF-B405-ABFA2908FDA9}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1603,7 +1621,7 @@
         <v>98</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>31</v>
@@ -1619,6 +1637,70 @@
       </c>
       <c r="J28" s="1" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
